--- a/InputData/indst/FoNEtVwP/Frac of Nonenergy Expenses that Vary with Production.xlsx
+++ b/InputData/indst/FoNEtVwP/Frac of Nonenergy Expenses that Vary with Production.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-2.0.0-us-wipA\InputData\indst\FoNEtVwP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\indst\FoNEtVwP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4E0A5C8D17C9A900AD8970D9EFEAFC6A39BAB1AE" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26250" windowHeight="12510"/>
+    <workbookView xWindow="14130" yWindow="2115" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,16 @@
     <sheet name="FoNEtVwP" sheetId="2" r:id="rId11"/>
     <sheet name="Electricity Suppliers" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3793,7 +3800,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -4108,6 +4115,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4117,12 +4125,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4400,10 +4407,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4685,10 +4694,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B25" r:id="rId2"/>
-    <hyperlink ref="B39" r:id="rId3"/>
-    <hyperlink ref="B32" r:id="rId4"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -4696,7 +4705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4713,68 +4722,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
@@ -39053,68 +39062,68 @@
       </c>
     </row>
     <row r="908" spans="1:12" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A908" s="52" t="s">
+      <c r="A908" s="53" t="s">
         <v>1148</v>
       </c>
-      <c r="B908" s="49"/>
-      <c r="C908" s="49"/>
-      <c r="D908" s="49"/>
-      <c r="E908" s="49"/>
-      <c r="F908" s="49"/>
-      <c r="G908" s="49"/>
-      <c r="H908" s="49"/>
-      <c r="I908" s="49"/>
-      <c r="J908" s="49"/>
-      <c r="K908" s="49"/>
-      <c r="L908" s="49"/>
+      <c r="B908" s="50"/>
+      <c r="C908" s="50"/>
+      <c r="D908" s="50"/>
+      <c r="E908" s="50"/>
+      <c r="F908" s="50"/>
+      <c r="G908" s="50"/>
+      <c r="H908" s="50"/>
+      <c r="I908" s="50"/>
+      <c r="J908" s="50"/>
+      <c r="K908" s="50"/>
+      <c r="L908" s="50"/>
     </row>
     <row r="909" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A909" s="48" t="s">
+      <c r="A909" s="49" t="s">
         <v>1149</v>
       </c>
-      <c r="B909" s="49"/>
-      <c r="C909" s="49"/>
-      <c r="D909" s="49"/>
-      <c r="E909" s="49"/>
-      <c r="F909" s="49"/>
-      <c r="G909" s="49"/>
-      <c r="H909" s="49"/>
-      <c r="I909" s="49"/>
-      <c r="J909" s="49"/>
-      <c r="K909" s="49"/>
-      <c r="L909" s="49"/>
+      <c r="B909" s="50"/>
+      <c r="C909" s="50"/>
+      <c r="D909" s="50"/>
+      <c r="E909" s="50"/>
+      <c r="F909" s="50"/>
+      <c r="G909" s="50"/>
+      <c r="H909" s="50"/>
+      <c r="I909" s="50"/>
+      <c r="J909" s="50"/>
+      <c r="K909" s="50"/>
+      <c r="L909" s="50"/>
     </row>
     <row r="910" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A910" s="48" t="s">
+      <c r="A910" s="49" t="s">
         <v>1150</v>
       </c>
-      <c r="B910" s="49"/>
-      <c r="C910" s="49"/>
-      <c r="D910" s="49"/>
-      <c r="E910" s="49"/>
-      <c r="F910" s="49"/>
-      <c r="G910" s="49"/>
-      <c r="H910" s="49"/>
-      <c r="I910" s="49"/>
-      <c r="J910" s="49"/>
-      <c r="K910" s="49"/>
-      <c r="L910" s="49"/>
+      <c r="B910" s="50"/>
+      <c r="C910" s="50"/>
+      <c r="D910" s="50"/>
+      <c r="E910" s="50"/>
+      <c r="F910" s="50"/>
+      <c r="G910" s="50"/>
+      <c r="H910" s="50"/>
+      <c r="I910" s="50"/>
+      <c r="J910" s="50"/>
+      <c r="K910" s="50"/>
+      <c r="L910" s="50"/>
     </row>
     <row r="911" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A911" s="48" t="s">
+      <c r="A911" s="49" t="s">
         <v>1151</v>
       </c>
-      <c r="B911" s="49"/>
-      <c r="C911" s="49"/>
-      <c r="D911" s="49"/>
-      <c r="E911" s="49"/>
-      <c r="F911" s="49"/>
-      <c r="G911" s="49"/>
-      <c r="H911" s="49"/>
-      <c r="I911" s="49"/>
-      <c r="J911" s="49"/>
-      <c r="K911" s="49"/>
-      <c r="L911" s="49"/>
+      <c r="B911" s="50"/>
+      <c r="C911" s="50"/>
+      <c r="D911" s="50"/>
+      <c r="E911" s="50"/>
+      <c r="F911" s="50"/>
+      <c r="G911" s="50"/>
+      <c r="H911" s="50"/>
+      <c r="I911" s="50"/>
+      <c r="J911" s="50"/>
+      <c r="K911" s="50"/>
+      <c r="L911" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -39134,7 +39143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -39230,7 +39239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39376,14 +39385,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.brkenergy.com/assets/upload/financial-filing/BHE 12.31.18 Form 10-K_vFINAL-3.pdf"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.brkenergy.com/assets/upload/financial-filing/BHE 12.31.18 Form 10-K_vFINAL-3.pdf" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39531,7 +39540,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <f>(SUMPRODUCT(B5:B7,C5:C7)+SUMPRODUCT(B10:B11,C10:C11))/SUM(B5:B7,B10:B11)</f>
         <v>0.76811594202898548</v>
       </c>
@@ -39542,7 +39551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40286,14 +40295,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B56" r:id="rId1"/>
+    <hyperlink ref="B56" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40769,7 +40778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40917,7 +40926,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <f>(SUMPRODUCT(B5:B7,C5:C7)+SUMPRODUCT(B10:B11,C10:C11))/SUM(B5:B7,B10:B11)</f>
         <v>0.78974358974358971</v>
       </c>
@@ -40929,7 +40938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41133,7 +41142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41281,7 +41290,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <f>(SUMPRODUCT(B5:B7,C5:C7)+SUMPRODUCT(B10:B11,C10:C11))/SUM(B5:B7,B10:B11)</f>
         <v>0.71874999999999989</v>
       </c>
@@ -41293,7 +41302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41441,7 +41450,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <f>(SUMPRODUCT(B5:B7,C5:C7)+SUMPRODUCT(B10:B11,C10:C11))/SUM(B5:B7,B10:B11)</f>
         <v>0.81940144478844168</v>
       </c>
@@ -41452,7 +41461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41600,7 +41609,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <f>(SUMPRODUCT(B5:B7,C5:C7)+SUMPRODUCT(B10:B11,C10:C11))/SUM(B5:B7,B10:B11)</f>
         <v>0.73904179408766568</v>
       </c>
@@ -41611,6 +41620,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -41844,32 +41871,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F28D475B-7746-4ACB-8839-88812968C599}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AFD8E6-3366-44F5-A4F4-9D9E6BFE81C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08569534-8226-4CD4-A0FA-B6DFD6114FA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08569534-8226-4CD4-A0FA-B6DFD6114FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AFD8E6-3366-44F5-A4F4-9D9E6BFE81C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F28D475B-7746-4ACB-8839-88812968C599}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>